--- a/ipy/alyData/相关性wind.xlsx
+++ b/ipy/alyData/相关性wind.xlsx
@@ -484,49 +484,49 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1881504838652897</v>
+        <v>0.2794979191892491</v>
       </c>
       <c r="D2">
-        <v>0.6488226415998466</v>
+        <v>0.6081661152572763</v>
       </c>
       <c r="E2">
-        <v>0.7783317327755609</v>
+        <v>0.7285884606521257</v>
       </c>
       <c r="F2">
-        <v>0.8209145246679507</v>
+        <v>0.7672182180261374</v>
       </c>
       <c r="G2">
-        <v>0.8405979640295227</v>
+        <v>0.8050927474034033</v>
       </c>
       <c r="H2">
-        <v>-0.07481697299790151</v>
+        <v>-0.04912893323575044</v>
       </c>
       <c r="I2">
-        <v>-0.03189556693670449</v>
+        <v>-0.05605270492235453</v>
       </c>
       <c r="J2">
-        <v>-0.09153520518311091</v>
+        <v>-0.1215477908560911</v>
       </c>
       <c r="K2">
-        <v>-0.1291706797643402</v>
+        <v>-0.1565785726016773</v>
       </c>
       <c r="L2">
-        <v>-0.1496335910389305</v>
+        <v>-0.1600070841632888</v>
       </c>
       <c r="M2">
-        <v>0.04120168511775179</v>
+        <v>0.06473603484971023</v>
       </c>
       <c r="N2">
-        <v>0.08194378484810182</v>
+        <v>0.09436113180808174</v>
       </c>
       <c r="O2">
-        <v>0.06992094948693052</v>
+        <v>0.08579702663131261</v>
       </c>
       <c r="P2">
-        <v>0.07521487524465295</v>
+        <v>0.107819203692994</v>
       </c>
       <c r="Q2">
-        <v>0.08524258506089517</v>
+        <v>0.1116112152458216</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -534,52 +534,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1881504838652897</v>
+        <v>0.2794979191892491</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0374464590083798</v>
+        <v>0.03568477879697418</v>
       </c>
       <c r="E3">
-        <v>0.04677648494838042</v>
+        <v>0.0567364973469069</v>
       </c>
       <c r="F3">
-        <v>0.06567378163399128</v>
+        <v>0.1046760090585201</v>
       </c>
       <c r="G3">
-        <v>0.06962951291769592</v>
+        <v>0.1256963649952044</v>
       </c>
       <c r="H3">
-        <v>0.8519244116262848</v>
+        <v>0.8273015528640844</v>
       </c>
       <c r="I3">
-        <v>0.2188952697615268</v>
+        <v>0.2246437223987112</v>
       </c>
       <c r="J3">
-        <v>0.2987275407267153</v>
+        <v>0.3025744103577126</v>
       </c>
       <c r="K3">
-        <v>0.3579395758406366</v>
+        <v>0.3463676152566523</v>
       </c>
       <c r="L3">
-        <v>0.4227011620884014</v>
+        <v>0.4120204172463953</v>
       </c>
       <c r="M3">
-        <v>0.05206468321109317</v>
+        <v>0.06923095669737964</v>
       </c>
       <c r="N3">
-        <v>0.08544229198325164</v>
+        <v>0.1128895735358417</v>
       </c>
       <c r="O3">
-        <v>0.07802637434212781</v>
+        <v>0.1220563487464343</v>
       </c>
       <c r="P3">
-        <v>0.08264787941354979</v>
+        <v>0.1373573401092033</v>
       </c>
       <c r="Q3">
-        <v>0.08388174531471305</v>
+        <v>0.1326356188776288</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -587,52 +587,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6488226415998466</v>
+        <v>0.6081661152572763</v>
       </c>
       <c r="C4">
-        <v>0.0374464590083798</v>
+        <v>0.03568477879697418</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7824786875975323</v>
+        <v>0.7861414950627645</v>
       </c>
       <c r="F4">
-        <v>0.7501838715614888</v>
+        <v>0.7370586768219941</v>
       </c>
       <c r="G4">
-        <v>0.6945007018802015</v>
+        <v>0.6568244378588131</v>
       </c>
       <c r="H4">
-        <v>-0.006261254344056092</v>
+        <v>-0.02792970292078369</v>
       </c>
       <c r="I4">
-        <v>-0.03285368395663962</v>
+        <v>-0.09848573284028857</v>
       </c>
       <c r="J4">
-        <v>-0.06425867516707344</v>
+        <v>-0.1032778225036645</v>
       </c>
       <c r="K4">
-        <v>-0.04556247554686545</v>
+        <v>-0.09312789767880335</v>
       </c>
       <c r="L4">
-        <v>-0.03265439994493415</v>
+        <v>-0.07852633838261014</v>
       </c>
       <c r="M4">
-        <v>-0.01856140418006428</v>
+        <v>-0.0007095511840810552</v>
       </c>
       <c r="N4">
-        <v>-0.009028618651291931</v>
+        <v>0.01394027152233418</v>
       </c>
       <c r="O4">
-        <v>-0.01460691394296964</v>
+        <v>-1.396967237805302e-05</v>
       </c>
       <c r="P4">
-        <v>0.001055510987333068</v>
+        <v>0.01247717710121142</v>
       </c>
       <c r="Q4">
-        <v>0.002345526733225707</v>
+        <v>0.009578718122260034</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -640,52 +640,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7783317327755609</v>
+        <v>0.7285884606521257</v>
       </c>
       <c r="C5">
-        <v>0.04677648494838042</v>
+        <v>0.0567364973469069</v>
       </c>
       <c r="D5">
-        <v>0.7824786875975323</v>
+        <v>0.7861414950627645</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9244769021141889</v>
+        <v>0.925409059216994</v>
       </c>
       <c r="G5">
-        <v>0.8624335820714654</v>
+        <v>0.8253547191392792</v>
       </c>
       <c r="H5">
-        <v>-0.03623590222882304</v>
+        <v>-0.05397400835483504</v>
       </c>
       <c r="I5">
-        <v>-0.05391906921429629</v>
+        <v>-0.08824614667730817</v>
       </c>
       <c r="J5">
-        <v>-0.1467810937163909</v>
+        <v>-0.1756186500176653</v>
       </c>
       <c r="K5">
-        <v>-0.1436340476204174</v>
+        <v>-0.1746977481852151</v>
       </c>
       <c r="L5">
-        <v>-0.1157343705517906</v>
+        <v>-0.1402735956314143</v>
       </c>
       <c r="M5">
-        <v>0.0003763450178885787</v>
+        <v>0.02845928645557553</v>
       </c>
       <c r="N5">
-        <v>0.01332884468230019</v>
+        <v>0.03330640973955869</v>
       </c>
       <c r="O5">
-        <v>-0.001686094886486722</v>
+        <v>0.01549142217263858</v>
       </c>
       <c r="P5">
-        <v>0.00792534208022232</v>
+        <v>0.02927036278250624</v>
       </c>
       <c r="Q5">
-        <v>0.01390841311410776</v>
+        <v>0.04193123835148704</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -693,52 +693,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8209145246679507</v>
+        <v>0.7672182180261374</v>
       </c>
       <c r="C6">
-        <v>0.06567378163399128</v>
+        <v>0.1046760090585201</v>
       </c>
       <c r="D6">
-        <v>0.7501838715614888</v>
+        <v>0.7370586768219941</v>
       </c>
       <c r="E6">
-        <v>0.9244769021141889</v>
+        <v>0.925409059216994</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9504753338750845</v>
+        <v>0.9286517656603042</v>
       </c>
       <c r="H6">
-        <v>-0.06042069367552664</v>
+        <v>-0.05133667349529413</v>
       </c>
       <c r="I6">
-        <v>-0.05361675883034432</v>
+        <v>-0.08743682697331345</v>
       </c>
       <c r="J6">
-        <v>-0.1695156351446538</v>
+        <v>-0.1974775719946326</v>
       </c>
       <c r="K6">
-        <v>-0.2166702994901441</v>
+        <v>-0.2234974310351392</v>
       </c>
       <c r="L6">
-        <v>-0.1961828483711333</v>
+        <v>-0.1863608708281566</v>
       </c>
       <c r="M6">
-        <v>0.01520478889110243</v>
+        <v>0.04368051651782685</v>
       </c>
       <c r="N6">
-        <v>0.04446292697764893</v>
+        <v>0.05086077112804084</v>
       </c>
       <c r="O6">
-        <v>0.02244559372227735</v>
+        <v>0.03345975454208384</v>
       </c>
       <c r="P6">
-        <v>0.01225240171399985</v>
+        <v>0.0450038454642126</v>
       </c>
       <c r="Q6">
-        <v>0.02867855991502492</v>
+        <v>0.06987657899149545</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -746,52 +746,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8405979640295227</v>
+        <v>0.8050927474034033</v>
       </c>
       <c r="C7">
-        <v>0.06962951291769592</v>
+        <v>0.1256963649952044</v>
       </c>
       <c r="D7">
-        <v>0.6945007018802015</v>
+        <v>0.6568244378588131</v>
       </c>
       <c r="E7">
-        <v>0.8624335820714654</v>
+        <v>0.8253547191392792</v>
       </c>
       <c r="F7">
-        <v>0.9504753338750845</v>
+        <v>0.9286517656603042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.1038800446449623</v>
+        <v>-0.07892553650230177</v>
       </c>
       <c r="I7">
-        <v>-0.05011148476558815</v>
+        <v>-0.08008417968026302</v>
       </c>
       <c r="J7">
-        <v>-0.1573572047675358</v>
+        <v>-0.1756138646884496</v>
       </c>
       <c r="K7">
-        <v>-0.228959762880637</v>
+        <v>-0.2354117296012639</v>
       </c>
       <c r="L7">
-        <v>-0.2556366504140357</v>
+        <v>-0.2452056383839616</v>
       </c>
       <c r="M7">
-        <v>0.04118652953922917</v>
+        <v>0.06650704227410427</v>
       </c>
       <c r="N7">
-        <v>0.06513727937458358</v>
+        <v>0.07507552459286554</v>
       </c>
       <c r="O7">
-        <v>0.04678712473577194</v>
+        <v>0.06687848077982592</v>
       </c>
       <c r="P7">
-        <v>0.04585033732805928</v>
+        <v>0.09533862255683796</v>
       </c>
       <c r="Q7">
-        <v>0.05683007957891299</v>
+        <v>0.108086822577739</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -799,52 +799,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.07481697299790151</v>
+        <v>-0.04912893323575044</v>
       </c>
       <c r="C8">
-        <v>0.8519244116262848</v>
+        <v>0.8273015528640844</v>
       </c>
       <c r="D8">
-        <v>-0.006261254344056092</v>
+        <v>-0.02792970292078369</v>
       </c>
       <c r="E8">
-        <v>-0.03623590222882304</v>
+        <v>-0.05397400835483504</v>
       </c>
       <c r="F8">
-        <v>-0.06042069367552664</v>
+        <v>-0.05133667349529413</v>
       </c>
       <c r="G8">
-        <v>-0.1038800446449623</v>
+        <v>-0.07892553650230177</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.2703549863980252</v>
+        <v>0.3371157749190151</v>
       </c>
       <c r="J8">
-        <v>0.4231107861120126</v>
+        <v>0.4880993701734103</v>
       </c>
       <c r="K8">
-        <v>0.5327196013881741</v>
+        <v>0.5711423638041626</v>
       </c>
       <c r="L8">
-        <v>0.639817591088916</v>
+        <v>0.6536585220063141</v>
       </c>
       <c r="M8">
-        <v>-0.002024169018698146</v>
+        <v>0.01704057594772063</v>
       </c>
       <c r="N8">
-        <v>-0.0007294775427358938</v>
+        <v>0.02919301460388436</v>
       </c>
       <c r="O8">
-        <v>-0.005006996337083107</v>
+        <v>0.04128983328593971</v>
       </c>
       <c r="P8">
-        <v>0.0136696467031975</v>
+        <v>0.05090045850832933</v>
       </c>
       <c r="Q8">
-        <v>0.02211546131697564</v>
+        <v>0.03886369586627234</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -852,52 +852,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.03189556693670449</v>
+        <v>-0.05605270492235453</v>
       </c>
       <c r="C9">
-        <v>0.2188952697615268</v>
+        <v>0.2246437223987112</v>
       </c>
       <c r="D9">
-        <v>-0.03285368395663962</v>
+        <v>-0.09848573284028857</v>
       </c>
       <c r="E9">
-        <v>-0.05391906921429629</v>
+        <v>-0.08824614667730817</v>
       </c>
       <c r="F9">
-        <v>-0.05361675883034432</v>
+        <v>-0.08743682697331345</v>
       </c>
       <c r="G9">
-        <v>-0.05011148476558815</v>
+        <v>-0.08008417968026302</v>
       </c>
       <c r="H9">
-        <v>0.2703549863980252</v>
+        <v>0.3371157749190151</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7278541938242865</v>
+        <v>0.7385942237811124</v>
       </c>
       <c r="K9">
-        <v>0.5405794598981375</v>
+        <v>0.611694275326474</v>
       </c>
       <c r="L9">
-        <v>0.4303857616987684</v>
+        <v>0.515500178764389</v>
       </c>
       <c r="M9">
-        <v>0.004470823013836059</v>
+        <v>-0.007577794062391262</v>
       </c>
       <c r="N9">
-        <v>-0.01286915168642146</v>
+        <v>0.006041865188710716</v>
       </c>
       <c r="O9">
-        <v>-0.02596643241770037</v>
+        <v>-0.01151197011080567</v>
       </c>
       <c r="P9">
-        <v>-0.007404838431280363</v>
+        <v>0.001428242360975779</v>
       </c>
       <c r="Q9">
-        <v>-0.02696053194119593</v>
+        <v>-0.002046132087362144</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -905,52 +905,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.09153520518311091</v>
+        <v>-0.1215477908560911</v>
       </c>
       <c r="C10">
-        <v>0.2987275407267153</v>
+        <v>0.3025744103577126</v>
       </c>
       <c r="D10">
-        <v>-0.06425867516707344</v>
+        <v>-0.1032778225036645</v>
       </c>
       <c r="E10">
-        <v>-0.1467810937163909</v>
+        <v>-0.1756186500176653</v>
       </c>
       <c r="F10">
-        <v>-0.1695156351446538</v>
+        <v>-0.1974775719946326</v>
       </c>
       <c r="G10">
-        <v>-0.1573572047675358</v>
+        <v>-0.1756138646884496</v>
       </c>
       <c r="H10">
-        <v>0.4231107861120126</v>
+        <v>0.4880993701734103</v>
       </c>
       <c r="I10">
-        <v>0.7278541938242865</v>
+        <v>0.7385942237811124</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.8590406573752719</v>
+        <v>0.8959470421968377</v>
       </c>
       <c r="L10">
-        <v>0.6925510719681891</v>
+        <v>0.7567556157896057</v>
       </c>
       <c r="M10">
-        <v>-0.01999224886083808</v>
+        <v>-0.004605701278226214</v>
       </c>
       <c r="N10">
-        <v>-0.02127736567588214</v>
+        <v>-0.008357880800374119</v>
       </c>
       <c r="O10">
-        <v>-0.03128454140663717</v>
+        <v>0.003111051804512126</v>
       </c>
       <c r="P10">
-        <v>-0.001112027972755545</v>
+        <v>0.01810471002222151</v>
       </c>
       <c r="Q10">
-        <v>-0.0362320772902185</v>
+        <v>0.000946949742863396</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -958,52 +958,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1291706797643402</v>
+        <v>-0.1565785726016773</v>
       </c>
       <c r="C11">
-        <v>0.3579395758406366</v>
+        <v>0.3463676152566523</v>
       </c>
       <c r="D11">
-        <v>-0.04556247554686545</v>
+        <v>-0.09312789767880335</v>
       </c>
       <c r="E11">
-        <v>-0.1436340476204174</v>
+        <v>-0.1746977481852151</v>
       </c>
       <c r="F11">
-        <v>-0.2166702994901441</v>
+        <v>-0.2234974310351392</v>
       </c>
       <c r="G11">
-        <v>-0.228959762880637</v>
+        <v>-0.2354117296012639</v>
       </c>
       <c r="H11">
-        <v>0.5327196013881741</v>
+        <v>0.5711423638041626</v>
       </c>
       <c r="I11">
-        <v>0.5405794598981375</v>
+        <v>0.611694275326474</v>
       </c>
       <c r="J11">
-        <v>0.8590406573752719</v>
+        <v>0.8959470421968377</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.8851882650233406</v>
+        <v>0.9037531377672099</v>
       </c>
       <c r="M11">
-        <v>-0.02489591684732923</v>
+        <v>0.0007584549654594654</v>
       </c>
       <c r="N11">
-        <v>-0.01627011897406284</v>
+        <v>0.004726416684498779</v>
       </c>
       <c r="O11">
-        <v>-0.01930460577715169</v>
+        <v>0.01970248522003636</v>
       </c>
       <c r="P11">
-        <v>0.0068637600166578</v>
+        <v>0.03663204912261522</v>
       </c>
       <c r="Q11">
-        <v>-0.04391230249068091</v>
+        <v>-4.486451107871071e-05</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1011,52 +1011,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1496335910389305</v>
+        <v>-0.1600070841632888</v>
       </c>
       <c r="C12">
-        <v>0.4227011620884014</v>
+        <v>0.4120204172463953</v>
       </c>
       <c r="D12">
-        <v>-0.03265439994493415</v>
+        <v>-0.07852633838261014</v>
       </c>
       <c r="E12">
-        <v>-0.1157343705517906</v>
+        <v>-0.1402735956314143</v>
       </c>
       <c r="F12">
-        <v>-0.1961828483711333</v>
+        <v>-0.1863608708281566</v>
       </c>
       <c r="G12">
-        <v>-0.2556366504140357</v>
+        <v>-0.2452056383839616</v>
       </c>
       <c r="H12">
-        <v>0.639817591088916</v>
+        <v>0.6536585220063141</v>
       </c>
       <c r="I12">
-        <v>0.4303857616987684</v>
+        <v>0.515500178764389</v>
       </c>
       <c r="J12">
-        <v>0.6925510719681891</v>
+        <v>0.7567556157896057</v>
       </c>
       <c r="K12">
-        <v>0.8851882650233406</v>
+        <v>0.9037531377672099</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.007993426010400477</v>
+        <v>0.0135547458182061</v>
       </c>
       <c r="N12">
-        <v>-0.005311405568028473</v>
+        <v>0.02442630859590838</v>
       </c>
       <c r="O12">
-        <v>-0.01319140508833748</v>
+        <v>0.03733283161816612</v>
       </c>
       <c r="P12">
-        <v>-0.004064973973843782</v>
+        <v>0.03793087889882356</v>
       </c>
       <c r="Q12">
-        <v>-0.05811347972628719</v>
+        <v>-0.01401025926378896</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1064,52 +1064,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.04120168511775179</v>
+        <v>0.06473603484971023</v>
       </c>
       <c r="C13">
-        <v>0.05206468321109317</v>
+        <v>0.06923095669737964</v>
       </c>
       <c r="D13">
-        <v>-0.01856140418006428</v>
+        <v>-0.0007095511840810552</v>
       </c>
       <c r="E13">
-        <v>0.0003763450178885787</v>
+        <v>0.02845928645557553</v>
       </c>
       <c r="F13">
-        <v>0.01520478889110243</v>
+        <v>0.04368051651782685</v>
       </c>
       <c r="G13">
-        <v>0.04118652953922917</v>
+        <v>0.06650704227410427</v>
       </c>
       <c r="H13">
-        <v>-0.002024169018698146</v>
+        <v>0.01704057594772063</v>
       </c>
       <c r="I13">
-        <v>0.004470823013836059</v>
+        <v>-0.007577794062391262</v>
       </c>
       <c r="J13">
-        <v>-0.01999224886083808</v>
+        <v>-0.004605701278226214</v>
       </c>
       <c r="K13">
-        <v>-0.02489591684732923</v>
+        <v>0.0007584549654594654</v>
       </c>
       <c r="L13">
-        <v>-0.007993426010400477</v>
+        <v>0.0135547458182061</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.5807930608479721</v>
+        <v>0.5806458510605265</v>
       </c>
       <c r="O13">
-        <v>0.4748457092959253</v>
+        <v>0.4728025110232451</v>
       </c>
       <c r="P13">
-        <v>0.3499210296053792</v>
+        <v>0.3553983797796633</v>
       </c>
       <c r="Q13">
-        <v>0.2232021604361626</v>
+        <v>0.2336078480682055</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1117,52 +1117,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.08194378484810182</v>
+        <v>0.09436113180808174</v>
       </c>
       <c r="C14">
-        <v>0.08544229198325164</v>
+        <v>0.1128895735358417</v>
       </c>
       <c r="D14">
-        <v>-0.009028618651291931</v>
+        <v>0.01394027152233418</v>
       </c>
       <c r="E14">
-        <v>0.01332884468230019</v>
+        <v>0.03330640973955869</v>
       </c>
       <c r="F14">
-        <v>0.04446292697764893</v>
+        <v>0.05086077112804084</v>
       </c>
       <c r="G14">
-        <v>0.06513727937458358</v>
+        <v>0.07507552459286554</v>
       </c>
       <c r="H14">
-        <v>-0.0007294775427358938</v>
+        <v>0.02919301460388436</v>
       </c>
       <c r="I14">
-        <v>-0.01286915168642146</v>
+        <v>0.006041865188710716</v>
       </c>
       <c r="J14">
-        <v>-0.02127736567588214</v>
+        <v>-0.008357880800374119</v>
       </c>
       <c r="K14">
-        <v>-0.01627011897406284</v>
+        <v>0.004726416684498779</v>
       </c>
       <c r="L14">
-        <v>-0.005311405568028473</v>
+        <v>0.02442630859590838</v>
       </c>
       <c r="M14">
-        <v>0.5807930608479721</v>
+        <v>0.5806458510605265</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.7849072467993691</v>
+        <v>0.7873756528538562</v>
       </c>
       <c r="P14">
-        <v>0.5845978129565662</v>
+        <v>0.5903259207210474</v>
       </c>
       <c r="Q14">
-        <v>0.3855480078825065</v>
+        <v>0.4049970272624627</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1170,52 +1170,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.06992094948693052</v>
+        <v>0.08579702663131261</v>
       </c>
       <c r="C15">
-        <v>0.07802637434212781</v>
+        <v>0.1220563487464343</v>
       </c>
       <c r="D15">
-        <v>-0.01460691394296964</v>
+        <v>-1.396967237805302e-05</v>
       </c>
       <c r="E15">
-        <v>-0.001686094886486722</v>
+        <v>0.01549142217263858</v>
       </c>
       <c r="F15">
-        <v>0.02244559372227735</v>
+        <v>0.03345975454208384</v>
       </c>
       <c r="G15">
-        <v>0.04678712473577194</v>
+        <v>0.06687848077982592</v>
       </c>
       <c r="H15">
-        <v>-0.005006996337083107</v>
+        <v>0.04128983328593971</v>
       </c>
       <c r="I15">
-        <v>-0.02596643241770037</v>
+        <v>-0.01151197011080567</v>
       </c>
       <c r="J15">
-        <v>-0.03128454140663717</v>
+        <v>0.003111051804512126</v>
       </c>
       <c r="K15">
-        <v>-0.01930460577715169</v>
+        <v>0.01970248522003636</v>
       </c>
       <c r="L15">
-        <v>-0.01319140508833748</v>
+        <v>0.03733283161816612</v>
       </c>
       <c r="M15">
-        <v>0.4748457092959253</v>
+        <v>0.4728025110232451</v>
       </c>
       <c r="N15">
-        <v>0.7849072467993691</v>
+        <v>0.7873756528538562</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.7355398584507414</v>
+        <v>0.7396394381556445</v>
       </c>
       <c r="Q15">
-        <v>0.4956211753637143</v>
+        <v>0.5147588657336551</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1223,52 +1223,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07521487524465295</v>
+        <v>0.107819203692994</v>
       </c>
       <c r="C16">
-        <v>0.08264787941354979</v>
+        <v>0.1373573401092033</v>
       </c>
       <c r="D16">
-        <v>0.001055510987333068</v>
+        <v>0.01247717710121142</v>
       </c>
       <c r="E16">
-        <v>0.00792534208022232</v>
+        <v>0.02927036278250624</v>
       </c>
       <c r="F16">
-        <v>0.01225240171399985</v>
+        <v>0.0450038454642126</v>
       </c>
       <c r="G16">
-        <v>0.04585033732805928</v>
+        <v>0.09533862255683796</v>
       </c>
       <c r="H16">
-        <v>0.0136696467031975</v>
+        <v>0.05090045850832933</v>
       </c>
       <c r="I16">
-        <v>-0.007404838431280363</v>
+        <v>0.001428242360975779</v>
       </c>
       <c r="J16">
-        <v>-0.001112027972755545</v>
+        <v>0.01810471002222151</v>
       </c>
       <c r="K16">
-        <v>0.0068637600166578</v>
+        <v>0.03663204912261522</v>
       </c>
       <c r="L16">
-        <v>-0.004064973973843782</v>
+        <v>0.03793087889882356</v>
       </c>
       <c r="M16">
-        <v>0.3499210296053792</v>
+        <v>0.3553983797796633</v>
       </c>
       <c r="N16">
-        <v>0.5845978129565662</v>
+        <v>0.5903259207210474</v>
       </c>
       <c r="O16">
-        <v>0.7355398584507414</v>
+        <v>0.7396394381556445</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.6963371048392265</v>
+        <v>0.7168682096203696</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1276,49 +1276,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08524258506089517</v>
+        <v>0.1116112152458216</v>
       </c>
       <c r="C17">
-        <v>0.08388174531471305</v>
+        <v>0.1326356188776288</v>
       </c>
       <c r="D17">
-        <v>0.002345526733225707</v>
+        <v>0.009578718122260034</v>
       </c>
       <c r="E17">
-        <v>0.01390841311410776</v>
+        <v>0.04193123835148704</v>
       </c>
       <c r="F17">
-        <v>0.02867855991502492</v>
+        <v>0.06987657899149545</v>
       </c>
       <c r="G17">
-        <v>0.05683007957891299</v>
+        <v>0.108086822577739</v>
       </c>
       <c r="H17">
-        <v>0.02211546131697564</v>
+        <v>0.03886369586627234</v>
       </c>
       <c r="I17">
-        <v>-0.02696053194119593</v>
+        <v>-0.002046132087362144</v>
       </c>
       <c r="J17">
-        <v>-0.0362320772902185</v>
+        <v>0.000946949742863396</v>
       </c>
       <c r="K17">
-        <v>-0.04391230249068091</v>
+        <v>-4.486451107871071e-05</v>
       </c>
       <c r="L17">
-        <v>-0.05811347972628719</v>
+        <v>-0.01401025926378896</v>
       </c>
       <c r="M17">
-        <v>0.2232021604361626</v>
+        <v>0.2336078480682055</v>
       </c>
       <c r="N17">
-        <v>0.3855480078825065</v>
+        <v>0.4049970272624627</v>
       </c>
       <c r="O17">
-        <v>0.4956211753637143</v>
+        <v>0.5147588657336551</v>
       </c>
       <c r="P17">
-        <v>0.6963371048392265</v>
+        <v>0.7168682096203696</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1395,49 +1395,49 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8042538988862933</v>
+        <v>0.8880391695838008</v>
       </c>
       <c r="D2">
-        <v>0.4575291387183228</v>
+        <v>0.4210692890996233</v>
       </c>
       <c r="E2">
-        <v>0.6360441371328307</v>
+        <v>0.6206415150917295</v>
       </c>
       <c r="F2">
-        <v>0.7035473971579629</v>
+        <v>0.7239357853425737</v>
       </c>
       <c r="G2">
-        <v>0.7609997600336594</v>
+        <v>0.7851174912515834</v>
       </c>
       <c r="H2">
-        <v>-0.4396511289682456</v>
+        <v>-0.4475830632056566</v>
       </c>
       <c r="I2">
-        <v>-0.1933112686704463</v>
+        <v>-0.1465671161141646</v>
       </c>
       <c r="J2">
-        <v>-0.2652613009434956</v>
+        <v>-0.2906814640586751</v>
       </c>
       <c r="K2">
-        <v>-0.2968741552774479</v>
+        <v>-0.3537773272898482</v>
       </c>
       <c r="L2">
-        <v>-0.3150813958231192</v>
+        <v>-0.3635455605566246</v>
       </c>
       <c r="M2">
-        <v>0.09643551463355361</v>
+        <v>0.07832375547107887</v>
       </c>
       <c r="N2">
-        <v>0.1240650025323967</v>
+        <v>0.07883075120923697</v>
       </c>
       <c r="O2">
-        <v>0.07750154810459331</v>
+        <v>0.01551921836198446</v>
       </c>
       <c r="P2">
-        <v>0.09605378408841685</v>
+        <v>0.06256135762235024</v>
       </c>
       <c r="Q2">
-        <v>0.1244831276050158</v>
+        <v>0.1114321397856643</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1445,52 +1445,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8042538988862933</v>
+        <v>0.8880391695838008</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3185045970503499</v>
+        <v>0.3713413678468819</v>
       </c>
       <c r="E3">
-        <v>0.5350052129862467</v>
+        <v>0.5861611469902172</v>
       </c>
       <c r="F3">
-        <v>0.6309409180652773</v>
+        <v>0.701975319639961</v>
       </c>
       <c r="G3">
-        <v>0.6877487496141995</v>
+        <v>0.7757395791009963</v>
       </c>
       <c r="H3">
-        <v>-0.2637539518892481</v>
+        <v>-0.4131995616517938</v>
       </c>
       <c r="I3">
-        <v>-0.164097622731693</v>
+        <v>-0.1536974190377598</v>
       </c>
       <c r="J3">
-        <v>-0.2034610271761157</v>
+        <v>-0.3004420744881882</v>
       </c>
       <c r="K3">
-        <v>-0.2370463813377365</v>
+        <v>-0.3898001217620635</v>
       </c>
       <c r="L3">
-        <v>-0.2695742249921771</v>
+        <v>-0.4156206375943464</v>
       </c>
       <c r="M3">
-        <v>0.1036035611949204</v>
+        <v>0.05858367673262858</v>
       </c>
       <c r="N3">
-        <v>0.09295513129056214</v>
+        <v>0.02020188503343435</v>
       </c>
       <c r="O3">
-        <v>0.04015160141719506</v>
+        <v>-0.0431995695502386</v>
       </c>
       <c r="P3">
-        <v>0.02242594968876768</v>
+        <v>-0.01525437767864397</v>
       </c>
       <c r="Q3">
-        <v>-0.005134700575548467</v>
+        <v>0.009028584088336289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1498,52 +1498,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4575291387183228</v>
+        <v>0.4210692890996233</v>
       </c>
       <c r="C4">
-        <v>0.3185045970503499</v>
+        <v>0.3713413678468819</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7388924162353335</v>
+        <v>0.7298852183345524</v>
       </c>
       <c r="F4">
-        <v>0.615928986831535</v>
+        <v>0.5940798271463187</v>
       </c>
       <c r="G4">
-        <v>0.5527436298757382</v>
+        <v>0.5267925676531867</v>
       </c>
       <c r="H4">
-        <v>-0.1314411814264066</v>
+        <v>-0.1876566968385993</v>
       </c>
       <c r="I4">
-        <v>-0.3886785284877685</v>
+        <v>-0.4061398016527129</v>
       </c>
       <c r="J4">
-        <v>-0.2730713183207558</v>
+        <v>-0.3508329628175789</v>
       </c>
       <c r="K4">
-        <v>-0.1916187507019046</v>
+        <v>-0.2711201895499855</v>
       </c>
       <c r="L4">
-        <v>-0.1626356408018968</v>
+        <v>-0.2307315803257224</v>
       </c>
       <c r="M4">
-        <v>0.02371467740246489</v>
+        <v>0.03829110056239982</v>
       </c>
       <c r="N4">
-        <v>0.08085553614128588</v>
+        <v>0.08776821912973129</v>
       </c>
       <c r="O4">
-        <v>0.05844296021875432</v>
+        <v>0.01297364961476462</v>
       </c>
       <c r="P4">
-        <v>0.05267058858410537</v>
+        <v>0.03513268362812132</v>
       </c>
       <c r="Q4">
-        <v>0.0131362674292589</v>
+        <v>0.005025197355795773</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1551,52 +1551,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6360441371328307</v>
+        <v>0.6206415150917295</v>
       </c>
       <c r="C5">
-        <v>0.5350052129862467</v>
+        <v>0.5861611469902172</v>
       </c>
       <c r="D5">
-        <v>0.7388924162353335</v>
+        <v>0.7298852183345524</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.8914136217142039</v>
+        <v>0.881522404484589</v>
       </c>
       <c r="G5">
-        <v>0.7956517090606711</v>
+        <v>0.7837527532774728</v>
       </c>
       <c r="H5">
-        <v>-0.203539053351992</v>
+        <v>-0.2683275006134095</v>
       </c>
       <c r="I5">
-        <v>-0.329723470134942</v>
+        <v>-0.2691994748336484</v>
       </c>
       <c r="J5">
-        <v>-0.4309142953076995</v>
+        <v>-0.4653146576010522</v>
       </c>
       <c r="K5">
-        <v>-0.3151378283436084</v>
+        <v>-0.4000050590838304</v>
       </c>
       <c r="L5">
-        <v>-0.2668080495978543</v>
+        <v>-0.3366016919276604</v>
       </c>
       <c r="M5">
-        <v>0.1028148136257159</v>
+        <v>0.1023431753245465</v>
       </c>
       <c r="N5">
-        <v>0.1406647905009461</v>
+        <v>0.1081451286354612</v>
       </c>
       <c r="O5">
-        <v>0.08311195915304991</v>
+        <v>0.003736450686082474</v>
       </c>
       <c r="P5">
-        <v>0.06560719546113614</v>
+        <v>0.05033041377037934</v>
       </c>
       <c r="Q5">
-        <v>-0.01769508274663029</v>
+        <v>0.006841077619080522</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1604,52 +1604,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7035473971579629</v>
+        <v>0.7239357853425737</v>
       </c>
       <c r="C6">
-        <v>0.6309409180652773</v>
+        <v>0.701975319639961</v>
       </c>
       <c r="D6">
-        <v>0.615928986831535</v>
+        <v>0.5940798271463187</v>
       </c>
       <c r="E6">
-        <v>0.8914136217142039</v>
+        <v>0.881522404484589</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9157837704896626</v>
+        <v>0.9226230579376787</v>
       </c>
       <c r="H6">
-        <v>-0.2274598024659237</v>
+        <v>-0.3012771610553418</v>
       </c>
       <c r="I6">
-        <v>-0.2810299188400524</v>
+        <v>-0.215699521624665</v>
       </c>
       <c r="J6">
-        <v>-0.4012423893078256</v>
+        <v>-0.4108572062889478</v>
       </c>
       <c r="K6">
-        <v>-0.3994685236923893</v>
+        <v>-0.4640631670281625</v>
       </c>
       <c r="L6">
-        <v>-0.3410573603852353</v>
+        <v>-0.3925758067677143</v>
       </c>
       <c r="M6">
-        <v>0.09774152629565483</v>
+        <v>0.07272047183094307</v>
       </c>
       <c r="N6">
-        <v>0.1229247393129311</v>
+        <v>0.07238238483512731</v>
       </c>
       <c r="O6">
-        <v>0.06250470596572967</v>
+        <v>-0.008513743816018882</v>
       </c>
       <c r="P6">
-        <v>0.008398166406816523</v>
+        <v>0.009461731531766616</v>
       </c>
       <c r="Q6">
-        <v>-0.07820983874149451</v>
+        <v>-0.01156303206383703</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1657,52 +1657,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7609997600336594</v>
+        <v>0.7851174912515834</v>
       </c>
       <c r="C7">
-        <v>0.6877487496141995</v>
+        <v>0.7757395791009963</v>
       </c>
       <c r="D7">
-        <v>0.5527436298757382</v>
+        <v>0.5267925676531867</v>
       </c>
       <c r="E7">
-        <v>0.7956517090606711</v>
+        <v>0.7837527532774728</v>
       </c>
       <c r="F7">
-        <v>0.9157837704896626</v>
+        <v>0.9226230579376787</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.2574769034604751</v>
+        <v>-0.3249829342347531</v>
       </c>
       <c r="I7">
-        <v>-0.255067839132491</v>
+        <v>-0.1900647724392068</v>
       </c>
       <c r="J7">
-        <v>-0.3633969190014977</v>
+        <v>-0.3751215845765217</v>
       </c>
       <c r="K7">
-        <v>-0.3820001041102272</v>
+        <v>-0.4541875935690902</v>
       </c>
       <c r="L7">
-        <v>-0.3909506375697214</v>
+        <v>-0.4536374688010032</v>
       </c>
       <c r="M7">
-        <v>0.06826378561009143</v>
+        <v>0.05670758054702925</v>
       </c>
       <c r="N7">
-        <v>0.06089685981082398</v>
+        <v>0.03574700444325737</v>
       </c>
       <c r="O7">
-        <v>-0.0206407400586586</v>
+        <v>-0.05274163675627983</v>
       </c>
       <c r="P7">
-        <v>-0.07654099609098171</v>
+        <v>-0.03455077093467539</v>
       </c>
       <c r="Q7">
-        <v>-0.1147105714642076</v>
+        <v>-0.01849372037044659</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1710,52 +1710,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.4396511289682456</v>
+        <v>-0.4475830632056566</v>
       </c>
       <c r="C8">
-        <v>-0.2637539518892481</v>
+        <v>-0.4131995616517938</v>
       </c>
       <c r="D8">
-        <v>-0.1314411814264066</v>
+        <v>-0.1876566968385993</v>
       </c>
       <c r="E8">
-        <v>-0.203539053351992</v>
+        <v>-0.2683275006134095</v>
       </c>
       <c r="F8">
-        <v>-0.2274598024659237</v>
+        <v>-0.3012771610553418</v>
       </c>
       <c r="G8">
-        <v>-0.2574769034604751</v>
+        <v>-0.3249829342347531</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.2991224726928774</v>
+        <v>0.4173593165705286</v>
       </c>
       <c r="J8">
-        <v>0.5177305271709913</v>
+        <v>0.6077955329719675</v>
       </c>
       <c r="K8">
-        <v>0.6686567289965001</v>
+        <v>0.7053828110639837</v>
       </c>
       <c r="L8">
-        <v>0.7582359275964931</v>
+        <v>0.7729741708768803</v>
       </c>
       <c r="M8">
-        <v>-0.05958348681684271</v>
+        <v>-0.05490135488409157</v>
       </c>
       <c r="N8">
-        <v>-0.1236326369858435</v>
+        <v>-0.1132289754049005</v>
       </c>
       <c r="O8">
-        <v>-0.112925804204159</v>
+        <v>-0.09669160683621374</v>
       </c>
       <c r="P8">
-        <v>-0.1574546340478583</v>
+        <v>-0.1256999115603527</v>
       </c>
       <c r="Q8">
-        <v>-0.2588521411489418</v>
+        <v>-0.2093769071430297</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1763,52 +1763,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1933112686704463</v>
+        <v>-0.1465671161141646</v>
       </c>
       <c r="C9">
-        <v>-0.164097622731693</v>
+        <v>-0.1536974190377598</v>
       </c>
       <c r="D9">
-        <v>-0.3886785284877685</v>
+        <v>-0.4061398016527129</v>
       </c>
       <c r="E9">
-        <v>-0.329723470134942</v>
+        <v>-0.2691994748336484</v>
       </c>
       <c r="F9">
-        <v>-0.2810299188400524</v>
+        <v>-0.215699521624665</v>
       </c>
       <c r="G9">
-        <v>-0.255067839132491</v>
+        <v>-0.1900647724392068</v>
       </c>
       <c r="H9">
-        <v>0.2991224726928774</v>
+        <v>0.4173593165705286</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7246263297908371</v>
+        <v>0.7281536696404446</v>
       </c>
       <c r="K9">
-        <v>0.5293755508408091</v>
+        <v>0.5967269607964518</v>
       </c>
       <c r="L9">
-        <v>0.4551072356124198</v>
+        <v>0.5246561677641263</v>
       </c>
       <c r="M9">
-        <v>0.03592927675952712</v>
+        <v>0.02234845752241035</v>
       </c>
       <c r="N9">
-        <v>-0.02656875527204542</v>
+        <v>-0.01137825783056889</v>
       </c>
       <c r="O9">
-        <v>-0.03313754602803718</v>
+        <v>-0.04007768970847946</v>
       </c>
       <c r="P9">
-        <v>0.01469371637013148</v>
+        <v>-0.005756487215298679</v>
       </c>
       <c r="Q9">
-        <v>0.02472428026785499</v>
+        <v>0.003996216574178667</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1816,52 +1816,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2652613009434956</v>
+        <v>-0.2906814640586751</v>
       </c>
       <c r="C10">
-        <v>-0.2034610271761157</v>
+        <v>-0.3004420744881882</v>
       </c>
       <c r="D10">
-        <v>-0.2730713183207558</v>
+        <v>-0.3508329628175789</v>
       </c>
       <c r="E10">
-        <v>-0.4309142953076995</v>
+        <v>-0.4653146576010522</v>
       </c>
       <c r="F10">
-        <v>-0.4012423893078256</v>
+        <v>-0.4108572062889478</v>
       </c>
       <c r="G10">
-        <v>-0.3633969190014977</v>
+        <v>-0.3751215845765217</v>
       </c>
       <c r="H10">
-        <v>0.5177305271709913</v>
+        <v>0.6077955329719675</v>
       </c>
       <c r="I10">
-        <v>0.7246263297908371</v>
+        <v>0.7281536696404446</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.8464728806100839</v>
+        <v>0.8892577632067514</v>
       </c>
       <c r="L10">
-        <v>0.7351092266101178</v>
+        <v>0.7817793566771406</v>
       </c>
       <c r="M10">
-        <v>-0.02470699487631017</v>
+        <v>-0.0133699367047153</v>
       </c>
       <c r="N10">
-        <v>-0.08239782516986822</v>
+        <v>-0.08285802079123425</v>
       </c>
       <c r="O10">
-        <v>-0.05877590309896399</v>
+        <v>-0.05228881178411072</v>
       </c>
       <c r="P10">
-        <v>0.02627450995832653</v>
+        <v>-0.003572386659912752</v>
       </c>
       <c r="Q10">
-        <v>0.0392771963161346</v>
+        <v>-0.01781995209787101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1869,52 +1869,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.2968741552774479</v>
+        <v>-0.3537773272898482</v>
       </c>
       <c r="C11">
-        <v>-0.2370463813377365</v>
+        <v>-0.3898001217620635</v>
       </c>
       <c r="D11">
-        <v>-0.1916187507019046</v>
+        <v>-0.2711201895499855</v>
       </c>
       <c r="E11">
-        <v>-0.3151378283436084</v>
+        <v>-0.4000050590838304</v>
       </c>
       <c r="F11">
-        <v>-0.3994685236923893</v>
+        <v>-0.4640631670281625</v>
       </c>
       <c r="G11">
-        <v>-0.3820001041102272</v>
+        <v>-0.4541875935690902</v>
       </c>
       <c r="H11">
-        <v>0.6686567289965001</v>
+        <v>0.7053828110639837</v>
       </c>
       <c r="I11">
-        <v>0.5293755508408091</v>
+        <v>0.5967269607964518</v>
       </c>
       <c r="J11">
-        <v>0.8464728806100839</v>
+        <v>0.8892577632067514</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.907461003062955</v>
+        <v>0.9196224306067682</v>
       </c>
       <c r="M11">
-        <v>-0.02713650135282771</v>
+        <v>-0.01316986081904535</v>
       </c>
       <c r="N11">
-        <v>-0.07206484811659543</v>
+        <v>-0.04709475986739627</v>
       </c>
       <c r="O11">
-        <v>-0.03665556498714923</v>
+        <v>-0.005808089201514442</v>
       </c>
       <c r="P11">
-        <v>0.03113402177039798</v>
+        <v>0.03001500230737265</v>
       </c>
       <c r="Q11">
-        <v>-0.04919834562372132</v>
+        <v>-0.04234535015159398</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1922,52 +1922,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3150813958231192</v>
+        <v>-0.3635455605566246</v>
       </c>
       <c r="C12">
-        <v>-0.2695742249921771</v>
+        <v>-0.4156206375943464</v>
       </c>
       <c r="D12">
-        <v>-0.1626356408018968</v>
+        <v>-0.2307315803257224</v>
       </c>
       <c r="E12">
-        <v>-0.2668080495978543</v>
+        <v>-0.3366016919276604</v>
       </c>
       <c r="F12">
-        <v>-0.3410573603852353</v>
+        <v>-0.3925758067677143</v>
       </c>
       <c r="G12">
-        <v>-0.3909506375697214</v>
+        <v>-0.4536374688010032</v>
       </c>
       <c r="H12">
-        <v>0.7582359275964931</v>
+        <v>0.7729741708768803</v>
       </c>
       <c r="I12">
-        <v>0.4551072356124198</v>
+        <v>0.5246561677641263</v>
       </c>
       <c r="J12">
-        <v>0.7351092266101178</v>
+        <v>0.7817793566771406</v>
       </c>
       <c r="K12">
-        <v>0.907461003062955</v>
+        <v>0.9196224306067682</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.01344847864852078</v>
+        <v>-0.002812795681450172</v>
       </c>
       <c r="N12">
-        <v>-0.05375989462595347</v>
+        <v>-0.02840463412444523</v>
       </c>
       <c r="O12">
-        <v>-0.01381642194996154</v>
+        <v>0.008967484967431941</v>
       </c>
       <c r="P12">
-        <v>0.005836843063813464</v>
+        <v>-0.001285181910005936</v>
       </c>
       <c r="Q12">
-        <v>-0.1157835499251349</v>
+        <v>-0.08236081175154092</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1975,52 +1975,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.09643551463355361</v>
+        <v>0.07832375547107887</v>
       </c>
       <c r="C13">
-        <v>0.1036035611949204</v>
+        <v>0.05858367673262858</v>
       </c>
       <c r="D13">
-        <v>0.02371467740246489</v>
+        <v>0.03829110056239982</v>
       </c>
       <c r="E13">
-        <v>0.1028148136257159</v>
+        <v>0.1023431753245465</v>
       </c>
       <c r="F13">
-        <v>0.09774152629565483</v>
+        <v>0.07272047183094307</v>
       </c>
       <c r="G13">
-        <v>0.06826378561009143</v>
+        <v>0.05670758054702925</v>
       </c>
       <c r="H13">
-        <v>-0.05958348681684271</v>
+        <v>-0.05490135488409157</v>
       </c>
       <c r="I13">
-        <v>0.03592927675952712</v>
+        <v>0.02234845752241035</v>
       </c>
       <c r="J13">
-        <v>-0.02470699487631017</v>
+        <v>-0.0133699367047153</v>
       </c>
       <c r="K13">
-        <v>-0.02713650135282771</v>
+        <v>-0.01316986081904535</v>
       </c>
       <c r="L13">
-        <v>-0.01344847864852078</v>
+        <v>-0.002812795681450172</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.5753185856549128</v>
+        <v>0.5731825298773506</v>
       </c>
       <c r="O13">
-        <v>0.4467261400215003</v>
+        <v>0.4472809970454996</v>
       </c>
       <c r="P13">
-        <v>0.3321000630748018</v>
+        <v>0.3311387308549467</v>
       </c>
       <c r="Q13">
-        <v>0.2225236973938264</v>
+        <v>0.2215541569271218</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2028,52 +2028,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1240650025323967</v>
+        <v>0.07883075120923697</v>
       </c>
       <c r="C14">
-        <v>0.09295513129056214</v>
+        <v>0.02020188503343435</v>
       </c>
       <c r="D14">
-        <v>0.08085553614128588</v>
+        <v>0.08776821912973129</v>
       </c>
       <c r="E14">
-        <v>0.1406647905009461</v>
+        <v>0.1081451286354612</v>
       </c>
       <c r="F14">
-        <v>0.1229247393129311</v>
+        <v>0.07238238483512731</v>
       </c>
       <c r="G14">
-        <v>0.06089685981082398</v>
+        <v>0.03574700444325737</v>
       </c>
       <c r="H14">
-        <v>-0.1236326369858435</v>
+        <v>-0.1132289754049005</v>
       </c>
       <c r="I14">
-        <v>-0.02656875527204542</v>
+        <v>-0.01137825783056889</v>
       </c>
       <c r="J14">
-        <v>-0.08239782516986822</v>
+        <v>-0.08285802079123425</v>
       </c>
       <c r="K14">
-        <v>-0.07206484811659543</v>
+        <v>-0.04709475986739627</v>
       </c>
       <c r="L14">
-        <v>-0.05375989462595347</v>
+        <v>-0.02840463412444523</v>
       </c>
       <c r="M14">
-        <v>0.5753185856549128</v>
+        <v>0.5731825298773506</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.7819536371203931</v>
+        <v>0.7808364830204434</v>
       </c>
       <c r="P14">
-        <v>0.5677682401428175</v>
+        <v>0.566823413669425</v>
       </c>
       <c r="Q14">
-        <v>0.3792596727655654</v>
+        <v>0.3743436886149878</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2081,52 +2081,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07750154810459331</v>
+        <v>0.01551921836198446</v>
       </c>
       <c r="C15">
-        <v>0.04015160141719506</v>
+        <v>-0.0431995695502386</v>
       </c>
       <c r="D15">
-        <v>0.05844296021875432</v>
+        <v>0.01297364961476462</v>
       </c>
       <c r="E15">
-        <v>0.08311195915304991</v>
+        <v>0.003736450686082474</v>
       </c>
       <c r="F15">
-        <v>0.06250470596572967</v>
+        <v>-0.008513743816018882</v>
       </c>
       <c r="G15">
-        <v>-0.0206407400586586</v>
+        <v>-0.05274163675627983</v>
       </c>
       <c r="H15">
-        <v>-0.112925804204159</v>
+        <v>-0.09669160683621374</v>
       </c>
       <c r="I15">
-        <v>-0.03313754602803718</v>
+        <v>-0.04007768970847946</v>
       </c>
       <c r="J15">
-        <v>-0.05877590309896399</v>
+        <v>-0.05228881178411072</v>
       </c>
       <c r="K15">
-        <v>-0.03665556498714923</v>
+        <v>-0.005808089201514442</v>
       </c>
       <c r="L15">
-        <v>-0.01381642194996154</v>
+        <v>0.008967484967431941</v>
       </c>
       <c r="M15">
-        <v>0.4467261400215003</v>
+        <v>0.4472809970454996</v>
       </c>
       <c r="N15">
-        <v>0.7819536371203931</v>
+        <v>0.7808364830204434</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.7156186657953021</v>
+        <v>0.7146892129409825</v>
       </c>
       <c r="Q15">
-        <v>0.4866035803513183</v>
+        <v>0.4814949222803986</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2134,52 +2134,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.09605378408841685</v>
+        <v>0.06256135762235024</v>
       </c>
       <c r="C16">
-        <v>0.02242594968876768</v>
+        <v>-0.01525437767864397</v>
       </c>
       <c r="D16">
-        <v>0.05267058858410537</v>
+        <v>0.03513268362812132</v>
       </c>
       <c r="E16">
-        <v>0.06560719546113614</v>
+        <v>0.05033041377037934</v>
       </c>
       <c r="F16">
-        <v>0.008398166406816523</v>
+        <v>0.009461731531766616</v>
       </c>
       <c r="G16">
-        <v>-0.07654099609098171</v>
+        <v>-0.03455077093467539</v>
       </c>
       <c r="H16">
-        <v>-0.1574546340478583</v>
+        <v>-0.1256999115603527</v>
       </c>
       <c r="I16">
-        <v>0.01469371637013148</v>
+        <v>-0.005756487215298679</v>
       </c>
       <c r="J16">
-        <v>0.02627450995832653</v>
+        <v>-0.003572386659912752</v>
       </c>
       <c r="K16">
-        <v>0.03113402177039798</v>
+        <v>0.03001500230737265</v>
       </c>
       <c r="L16">
-        <v>0.005836843063813464</v>
+        <v>-0.001285181910005936</v>
       </c>
       <c r="M16">
-        <v>0.3321000630748018</v>
+        <v>0.3311387308549467</v>
       </c>
       <c r="N16">
-        <v>0.5677682401428175</v>
+        <v>0.566823413669425</v>
       </c>
       <c r="O16">
-        <v>0.7156186657953021</v>
+        <v>0.7146892129409825</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.7283527884802605</v>
+        <v>0.7179168199935383</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2187,49 +2187,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1244831276050158</v>
+        <v>0.1114321397856643</v>
       </c>
       <c r="C17">
-        <v>-0.005134700575548467</v>
+        <v>0.009028584088336289</v>
       </c>
       <c r="D17">
-        <v>0.0131362674292589</v>
+        <v>0.005025197355795773</v>
       </c>
       <c r="E17">
-        <v>-0.01769508274663029</v>
+        <v>0.006841077619080522</v>
       </c>
       <c r="F17">
-        <v>-0.07820983874149451</v>
+        <v>-0.01156303206383703</v>
       </c>
       <c r="G17">
-        <v>-0.1147105714642076</v>
+        <v>-0.01849372037044659</v>
       </c>
       <c r="H17">
-        <v>-0.2588521411489418</v>
+        <v>-0.2093769071430297</v>
       </c>
       <c r="I17">
-        <v>0.02472428026785499</v>
+        <v>0.003996216574178667</v>
       </c>
       <c r="J17">
-        <v>0.0392771963161346</v>
+        <v>-0.01781995209787101</v>
       </c>
       <c r="K17">
-        <v>-0.04919834562372132</v>
+        <v>-0.04234535015159398</v>
       </c>
       <c r="L17">
-        <v>-0.1157835499251349</v>
+        <v>-0.08236081175154092</v>
       </c>
       <c r="M17">
-        <v>0.2225236973938264</v>
+        <v>0.2215541569271218</v>
       </c>
       <c r="N17">
-        <v>0.3792596727655654</v>
+        <v>0.3743436886149878</v>
       </c>
       <c r="O17">
-        <v>0.4866035803513183</v>
+        <v>0.4814949222803986</v>
       </c>
       <c r="P17">
-        <v>0.7283527884802605</v>
+        <v>0.7179168199935383</v>
       </c>
       <c r="Q17">
         <v>1</v>
